--- a/note/ThongKe_MonAn_20-11-2025.xlsx
+++ b/note/ThongKe_MonAn_20-11-2025.xlsx
@@ -29,7 +29,7 @@
     <t>GIÁ BÁN</t>
   </si>
   <si>
-    <t>SỐ LƯỢNG</t>
+    <t>SỐ LƯỢT BÁN</t>
   </si>
   <si>
     <t>DOANH THU</t>
@@ -147,7 +147,7 @@
     <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.39453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.22265625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="8.3046875" customWidth="true" bestFit="true"/>
   </cols>
